--- a/win.xlsx
+++ b/win.xlsx
@@ -16,25 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>联赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>芬甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瑞超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佐加顿 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HIFK足球 0 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,23 +399,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -431,38 +422,32 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
